--- a/ЦТ/ЛР_1_Исследование основных закономерностей формирования растров/data.xlsx
+++ b/ЦТ/ЛР_1_Исследование основных закономерностей формирования растров/data.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЦТ\ЛР_1_Исследование основных закономерностей формирования растров\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC88104-3A6D-4BF3-A5A8-D42EC8D2E7F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF96406-90F4-402B-9442-4403FF92AB70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="705" windowWidth="16365" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>1.1</t>
   </si>
@@ -52,12 +57,24 @@
   </si>
   <si>
     <t>f в</t>
+  </si>
+  <si>
+    <t>Zполн</t>
+  </si>
+  <si>
+    <t>построчная</t>
+  </si>
+  <si>
+    <t>чересстр.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,97 +101,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -190,19 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,15 +404,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -500,144 +426,369 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="2">
         <v>6</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="2">
         <v>7</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="2">
         <v>8</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="2">
         <v>9</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
+      <c r="B3" s="3">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B3/B9</f>
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:K4" si="0">C3/C9</f>
+        <v>12.5</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="3">
+        <f>B3*B7</f>
+        <v>31250</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:K5" si="1">C3*C7</f>
+        <v>15625</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>10416.666666666668</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>7812.5</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>5208.3333333333339</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>4464.2857142857147</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>3906.25</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>3472.2222222222222</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="3">
+        <f>(1/800)*10^6</f>
+        <v>1250</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:K6" si="2">(1/800)*10^6</f>
+        <v>1250</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="3">
+        <f>B6/B9</f>
+        <v>1250</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:K7" si="3">C6/C9</f>
+        <v>625</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="3"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="3"/>
+        <v>312.5</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="3"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
+        <v>178.57142857142858</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>156.25</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="2">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <f>1*4/3*B3*B3*B7/2</f>
+        <v>520833.33333333331</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:K10" si="4">1*4/3*C3*C3*C7/2</f>
+        <v>260416.66666666666</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="4"/>
+        <v>173611.11111111109</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="4"/>
+        <v>130208.33333333333</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="4"/>
+        <v>104166.66666666666</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="4"/>
+        <v>86805.555555555547</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>74404.761904761908</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="4"/>
+        <v>65104.166666666664</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="4"/>
+        <v>57870.370370370365</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="4"/>
+        <v>52083.333333333328</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
